--- a/repswitch_practice_2_version1.xlsx
+++ b/repswitch_practice_2_version1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A5158C-345F-4DD9-BA8C-1756CDC6CEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524AB8D-E742-4E6D-AC82-DB5627749FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C02D16B-9E84-44A8-8E24-BD4A4BF22DCA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/repswitch_practice_2_version1.xlsx
+++ b/repswitch_practice_2_version1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524AB8D-E742-4E6D-AC82-DB5627749FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1C1BC7-BCDF-4435-BEFA-809DA165873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="732" windowWidth="12360" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="9" r:id="rId1"/>
@@ -578,7 +578,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
